--- a/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,25 +447,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F2">
@@ -475,55 +477,44 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="I2">
-        <v>136</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>HOLRM-4</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SS6807</t>
-        </is>
-      </c>
-      <c r="Q2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F3">
@@ -533,50 +524,44 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="I3">
-        <v>225</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F4">
@@ -586,50 +571,44 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="I4">
-        <v>125</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F5">
@@ -639,50 +618,44 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F6">
@@ -692,50 +665,44 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F7">
@@ -745,55 +712,44 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="I7">
-        <v>373</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDSE-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>280/162/182</t>
-        </is>
-      </c>
-      <c r="Q7">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>RAJAMIR</t>
         </is>
       </c>
       <c r="F8">
@@ -803,45 +759,49 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>117</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F9">
@@ -851,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -862,34 +822,33 @@
         </is>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F10">
@@ -899,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -910,34 +869,33 @@
         </is>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F11">
@@ -947,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -958,34 +916,33 @@
         </is>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F12">
@@ -995,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1006,34 +963,33 @@
         </is>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F13">
@@ -1043,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1054,34 +1010,33 @@
         </is>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F14">
@@ -1091,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1102,34 +1057,33 @@
         </is>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F15">
@@ -1139,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1150,34 +1104,33 @@
         </is>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F16">
@@ -1187,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1198,29 +1151,28 @@
         </is>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1235,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1246,29 +1198,28 @@
         </is>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1283,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1294,29 +1245,28 @@
         </is>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1331,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1342,29 +1292,28 @@
         </is>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1379,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1390,29 +1339,28 @@
         </is>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1427,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1438,34 +1386,33 @@
         </is>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F22">
@@ -1475,45 +1422,49 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>326</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F23">
@@ -1523,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1534,34 +1485,33 @@
         </is>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F24">
@@ -1571,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1582,34 +1532,33 @@
         </is>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F25">
@@ -1619,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1630,34 +1579,33 @@
         </is>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F26">
@@ -1667,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1678,34 +1626,33 @@
         </is>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F27">
@@ -1715,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1726,34 +1673,33 @@
         </is>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F28">
@@ -1763,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -1774,34 +1720,33 @@
         </is>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F29">
@@ -1811,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -1822,34 +1767,33 @@
         </is>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F30">
@@ -1859,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -1870,34 +1814,33 @@
         </is>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F31">
@@ -1907,45 +1850,44 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>75</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F32">
@@ -1955,45 +1897,44 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F33">
@@ -2003,45 +1944,44 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F34">
@@ -2051,45 +1991,44 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F35">
@@ -2099,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2110,29 +2049,28 @@
         </is>
       </c>
       <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2147,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2158,34 +2096,33 @@
         </is>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F37">
@@ -2195,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2206,34 +2143,33 @@
         </is>
       </c>
       <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F38">
@@ -2243,45 +2179,49 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PHRYREG</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F39">
@@ -2291,45 +2231,49 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F40">
@@ -2339,45 +2283,49 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F41">
@@ -2387,45 +2335,49 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F42">
@@ -2435,36 +2387,40 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2473,7 +2429,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F43">
@@ -2483,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2494,25 +2450,24 @@
         </is>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2531,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2542,25 +2497,24 @@
         </is>
       </c>
       <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2579,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2590,25 +2544,24 @@
         </is>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2627,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2638,25 +2591,24 @@
         </is>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2675,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2686,25 +2638,24 @@
         </is>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2713,7 +2664,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F48">
@@ -2723,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I48">
         <v>-1</v>
@@ -2734,25 +2685,24 @@
         </is>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2761,7 +2711,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F49">
@@ -2771,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="I49">
         <v>-1</v>
@@ -2782,25 +2732,24 @@
         </is>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2809,7 +2758,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F50">
@@ -2819,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="I50">
         <v>-1</v>
@@ -2830,25 +2779,24 @@
         </is>
       </c>
       <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2857,7 +2805,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F51">
@@ -2867,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I51">
         <v>-1</v>
@@ -2878,25 +2826,24 @@
         </is>
       </c>
       <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2905,7 +2852,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F52">
@@ -2915,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I52">
         <v>-1</v>
@@ -2926,25 +2873,24 @@
         </is>
       </c>
       <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2953,7 +2899,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F53">
@@ -2963,36 +2909,35 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I53">
-        <v>-1</v>
+        <v>48</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3001,7 +2946,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F54">
@@ -3011,36 +2956,35 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I54">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3049,7 +2993,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F55">
@@ -3059,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="I55">
         <v>-1</v>
@@ -3070,25 +3014,24 @@
         </is>
       </c>
       <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3097,7 +3040,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F56">
@@ -3107,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="I56">
         <v>-1</v>
@@ -3118,34 +3061,33 @@
         </is>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F57">
@@ -3155,55 +3097,44 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="I57">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>SS6808</t>
-        </is>
-      </c>
-      <c r="Q57">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F58">
@@ -3213,55 +3144,44 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="I58">
-        <v>130</v>
+        <v>-1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>SS6809</t>
-        </is>
-      </c>
-      <c r="Q58">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F59">
@@ -3271,55 +3191,44 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="I59">
-        <v>181</v>
+        <v>-1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>SS6810</t>
-        </is>
-      </c>
-      <c r="Q59">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F60">
@@ -3329,55 +3238,44 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="I60">
-        <v>165</v>
+        <v>-1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>SS6811</t>
-        </is>
-      </c>
-      <c r="Q60">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F61">
@@ -3387,50 +3285,44 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="I61">
-        <v>214</v>
+        <v>-1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F62">
@@ -3440,50 +3332,44 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="I62">
-        <v>111</v>
+        <v>-1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F63">
@@ -3493,50 +3379,44 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="I63">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C64">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F64">
@@ -3546,50 +3426,44 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C65">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F65">
@@ -3599,45 +3473,44 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I65">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F66">
@@ -3647,55 +3520,44 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="I66">
-        <v>168</v>
+        <v>-1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>MEDSE-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>214/115/105</t>
-        </is>
-      </c>
-      <c r="Q66">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C67">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MAJASQU</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F67">
@@ -3705,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3716,34 +3578,33 @@
         </is>
       </c>
       <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C68">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MAJASQU</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F68">
@@ -3753,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I68">
         <v>-1</v>
@@ -3764,34 +3625,33 @@
         </is>
       </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C69">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F69">
@@ -3801,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -3812,34 +3672,33 @@
         </is>
       </c>
       <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C70">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F70">
@@ -3849,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="I70">
         <v>-1</v>
@@ -3860,34 +3719,33 @@
         </is>
       </c>
       <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C71">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F71">
@@ -3897,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>361</v>
+        <v>155</v>
       </c>
       <c r="I71">
         <v>-1</v>
@@ -3908,34 +3766,33 @@
         </is>
       </c>
       <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C72">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F72">
@@ -3945,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="I72">
         <v>-1</v>
@@ -3956,34 +3813,33 @@
         </is>
       </c>
       <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C73">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F73">
@@ -3993,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I73">
         <v>-1</v>
@@ -4004,34 +3860,33 @@
         </is>
       </c>
       <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C74">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F74">
@@ -4041,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I74">
         <v>-1</v>
@@ -4052,34 +3907,33 @@
         </is>
       </c>
       <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C75">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F75">
@@ -4089,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I75">
         <v>-1</v>
@@ -4100,34 +3954,33 @@
         </is>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F76">
@@ -4137,45 +3990,49 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I76">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F77">
@@ -4185,45 +4042,49 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="I77">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F78">
@@ -4233,45 +4094,49 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I78">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F79">
@@ -4281,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="I79">
         <v>-1</v>
@@ -4292,34 +4157,33 @@
         </is>
       </c>
       <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C80">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F80">
@@ -4329,45 +4193,54 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>453</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>SS7701</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C81">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F81">
@@ -4377,45 +4250,54 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>183</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>SS7702</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C82">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F82">
@@ -4425,45 +4307,54 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="I82">
-        <v>-1</v>
+        <v>202</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>SS7703</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F83">
@@ -4473,45 +4364,54 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="I83">
-        <v>-1</v>
+        <v>158</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>SS7704</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F84">
@@ -4521,45 +4421,54 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="I84">
-        <v>-1</v>
+        <v>205</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>SS7705</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F85">
@@ -4569,45 +4478,54 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="I85">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>SS7706</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F86">
@@ -4617,36 +4535,45 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="I86">
-        <v>-1</v>
+        <v>217</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>SS7707</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4655,7 +4582,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F87">
@@ -4665,36 +4592,45 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="I87">
-        <v>-1</v>
+        <v>157</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>SS7708</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4703,7 +4639,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F88">
@@ -4713,36 +4649,45 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="I88">
-        <v>-1</v>
+        <v>154</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="Q88">
-        <v>0</v>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>SS7709</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4751,7 +4696,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F89">
@@ -4761,36 +4706,45 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="I89">
-        <v>-1</v>
+        <v>240</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>SS7710</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4799,7 +4753,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F90">
@@ -4809,36 +4763,45 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="I90">
-        <v>-1</v>
+        <v>283</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="Q90">
-        <v>0</v>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>SS7711</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4847,7 +4810,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F91">
@@ -4857,36 +4820,45 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="I91">
-        <v>-1</v>
+        <v>195</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="Q91">
-        <v>0</v>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>SS7712</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4895,7 +4867,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F92">
@@ -4905,36 +4877,45 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="I92">
-        <v>-1</v>
+        <v>218</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>SS7713</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4943,7 +4924,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F93">
@@ -4953,36 +4934,45 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="I93">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>SS7714</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4991,7 +4981,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F94">
@@ -5001,36 +4991,45 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="I94">
-        <v>-1</v>
+        <v>161</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>SS7715</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2021</t>
+          <t>SOLEMON2024</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>22</v>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5039,7 +5038,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F95">
@@ -5049,1178 +5048,28 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="I95">
-        <v>-1</v>
+        <v>203</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>22</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>MICUVAR</t>
-        </is>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>119</v>
-      </c>
-      <c r="I96">
-        <v>-1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>22</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>82</v>
-      </c>
-      <c r="I97">
-        <v>-1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>22</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>92</v>
-      </c>
-      <c r="I98">
-        <v>-1</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>22</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>87</v>
-      </c>
-      <c r="I99">
-        <v>-1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>22</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>83</v>
-      </c>
-      <c r="I100">
-        <v>-1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>22</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101">
-        <v>-1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>22</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>88</v>
-      </c>
-      <c r="I102">
-        <v>-1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>22</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>89</v>
-      </c>
-      <c r="I103">
-        <v>-1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>22</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>99</v>
-      </c>
-      <c r="I104">
-        <v>-1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>22</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>129</v>
-      </c>
-      <c r="I105">
-        <v>-1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>22</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>114</v>
-      </c>
-      <c r="I106">
-        <v>-1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>22</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>150</v>
-      </c>
-      <c r="I107">
-        <v>-1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>22</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>141</v>
-      </c>
-      <c r="I108">
-        <v>-1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>22</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>144</v>
-      </c>
-      <c r="I109">
-        <v>-1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>22</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>PAGEERY</t>
-        </is>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>102</v>
-      </c>
-      <c r="I110">
-        <v>-1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>22</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>LEPTCAV</t>
-        </is>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="I111">
-        <v>-1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>22</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>LEPTCAV</t>
-        </is>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>107</v>
-      </c>
-      <c r="I112">
-        <v>-1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>22</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>LEPTCAV</t>
-        </is>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>101</v>
-      </c>
-      <c r="I113">
-        <v>-1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>22</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>LEPTCAV</t>
-        </is>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>99</v>
-      </c>
-      <c r="I114">
-        <v>-1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>22</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>SEPIELE</t>
-        </is>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>49</v>
-      </c>
-      <c r="I115">
-        <v>-1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>22</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>268</v>
-      </c>
-      <c r="I116">
-        <v>151</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>22</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>297</v>
-      </c>
-      <c r="I117">
-        <v>200</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>22</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>SCYOCAN</t>
-        </is>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>320</v>
-      </c>
-      <c r="I118">
-        <v>93</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>SOLEMON2021</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>22</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>ELEDMOS</t>
-        </is>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>75</v>
-      </c>
-      <c r="I119">
-        <v>-1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>SS7716</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F79">
@@ -4146,18 +4146,28 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="I79">
-        <v>-1</v>
+        <v>453</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L79">
         <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>SS7701</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4193,19 +4203,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="I80">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L80">
@@ -4213,7 +4223,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>SS7701</t>
+          <t>SS7702</t>
         </is>
       </c>
     </row>
@@ -4250,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="I81">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4270,7 +4280,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>SS7702</t>
+          <t>SS7703</t>
         </is>
       </c>
     </row>
@@ -4307,19 +4317,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="I82">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L82">
@@ -4327,7 +4337,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>SS7703</t>
+          <t>SS7704</t>
         </is>
       </c>
     </row>
@@ -4364,19 +4374,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="I83">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L83">
@@ -4384,7 +4394,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>SS7704</t>
+          <t>SS7705</t>
         </is>
       </c>
     </row>
@@ -4421,19 +4431,19 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I84">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L84">
@@ -4441,7 +4451,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>SS7705</t>
+          <t>SS7706</t>
         </is>
       </c>
     </row>
@@ -4478,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I85">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4498,7 +4508,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>SS7706</t>
+          <t>SS7707</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4530,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4535,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="I86">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4547,7 +4557,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L86">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>SS7707</t>
+          <t>SS7708</t>
         </is>
       </c>
     </row>
@@ -4592,19 +4602,19 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I87">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L87">
@@ -4612,7 +4622,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>SS7708</t>
+          <t>SS7709</t>
         </is>
       </c>
     </row>
@@ -4649,19 +4659,19 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="I88">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L88">
@@ -4669,7 +4679,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>SS7709</t>
+          <t>SS7710</t>
         </is>
       </c>
     </row>
@@ -4706,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I89">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4726,7 +4736,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>SS7710</t>
+          <t>SS7711</t>
         </is>
       </c>
     </row>
@@ -4763,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="I90">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4783,7 +4793,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>SS7711</t>
+          <t>SS7712</t>
         </is>
       </c>
     </row>
@@ -4820,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I91">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4840,7 +4850,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>SS7712</t>
+          <t>SS7713</t>
         </is>
       </c>
     </row>
@@ -4877,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I92">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4897,7 +4907,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>SS7713</t>
+          <t>SS7714</t>
         </is>
       </c>
     </row>
@@ -4934,19 +4944,19 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I93">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L93">
@@ -4954,7 +4964,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>SS7714</t>
+          <t>SS7715</t>
         </is>
       </c>
     </row>
@@ -4991,82 +5001,25 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I94">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="N94" t="inlineStr">
-        <is>
-          <t>SS7715</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>282</v>
-      </c>
-      <c r="I95">
-        <v>203</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="N95" t="inlineStr">
         <is>
           <t>SS7716</t>
         </is>
